--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -1594,7 +1594,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2079,9 +2079,21 @@
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2178,11 +2190,7 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2243,7 +2251,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2295,7 +2303,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2334,7 +2342,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2402,7 +2410,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2457,7 +2465,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2508,7 +2516,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2565,7 +2573,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2624,21 +2636,9 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2681,15 +2681,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2732,12 +2736,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2787,12 +2791,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2830,19 +2834,15 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2881,15 +2881,19 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -2936,19 +2940,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3000,15 +3000,19 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3056,12 +3060,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3112,12 +3116,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3167,12 +3171,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3222,12 +3226,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3281,12 +3285,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3340,12 +3344,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3399,19 +3403,15 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3462,12 +3462,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3525,12 +3525,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3586,9 +3586,21 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -997,7 +997,11 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Katherine - Take Red Camry to the store, Rockford will keep it</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
@@ -1060,21 +1064,9 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1137,18 +1129,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1219,15 +1210,20 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1297,15 +1293,19 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store (to take Camry)</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1368,19 +1368,15 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1439,12 +1435,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1514,12 +1510,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1589,12 +1585,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1652,12 +1648,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1715,12 +1711,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1774,12 +1770,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1833,12 +1829,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1900,12 +1896,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1959,12 +1955,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2018,12 +2014,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2081,12 +2077,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2142,9 +2138,21 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2249,11 +2257,7 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2303,7 +2307,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2342,7 +2346,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2410,7 +2414,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2465,7 +2469,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2516,7 +2520,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2575,7 +2579,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2637,7 +2641,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2679,21 +2687,9 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2736,15 +2732,19 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2791,12 +2791,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2829,17 +2829,21 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Katherine - FV bringing Red Camry to store, take back to office</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2863,37 +2867,21 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -2928,27 +2916,35 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2984,35 +2980,27 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Grafton</t>
-        </is>
-      </c>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3043,32 +3031,35 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Grafton</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3099,29 +3090,29 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Altima</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3159,24 +3150,29 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3214,24 +3210,28 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>*Bring Red Camry back</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3269,28 +3269,24 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3328,12 +3324,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3344,12 +3340,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3387,12 +3383,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3403,12 +3399,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3446,12 +3442,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3462,19 +3458,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3509,12 +3501,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3525,12 +3517,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3572,12 +3564,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3588,12 +3580,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3635,12 +3627,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3649,9 +3641,21 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3685,9 +3689,21 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -602,7 +602,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sante Fe should be done at Lutters (low tire on Friday)</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1269,7 +1273,7 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Optima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1798,7 +1802,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -1069,7 +1069,11 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>IAN to bring KATHERINE back to office after the store</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1131,21 +1135,9 @@
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1214,18 +1206,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1297,17 +1288,18 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store (to take Camry)</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1372,15 +1364,19 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>@ Store (to take Camry)</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1439,19 +1435,15 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1514,12 +1506,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1589,12 +1581,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1652,12 +1644,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1715,12 +1707,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1774,12 +1766,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1837,12 +1829,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1904,12 +1896,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1963,12 +1955,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2022,12 +2014,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2085,12 +2077,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2148,12 +2140,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2205,9 +2197,21 @@
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2313,11 +2317,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2422,7 +2422,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2696,7 +2696,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2738,21 +2742,9 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2799,15 +2791,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2846,12 +2842,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2876,17 +2872,21 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>IAN &amp; KATHERINE - meet at office @ 4:15 AM</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2922,37 +2922,21 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2988,27 +2972,35 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3039,35 +3031,27 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Grafton</t>
-        </is>
-      </c>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3098,32 +3082,35 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Grafton</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3158,29 +3145,29 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Altima</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3218,28 +3205,29 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>*Bring Red Camry back</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3277,24 +3265,28 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>*Bring Red Camry back</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3332,28 +3324,24 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3391,12 +3379,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3407,12 +3395,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3450,12 +3438,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3466,12 +3454,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3509,12 +3497,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3525,19 +3513,15 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -3572,12 +3556,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3588,12 +3572,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3635,12 +3619,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3651,12 +3635,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3699,12 +3683,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3713,9 +3697,21 @@
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3748,9 +3744,21 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -3275,7 +3275,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>*Bring Red Camry back</t>
+          <t>*Bring Red Camry back with 2 keys</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,10 +1158,14 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1239,10 +1243,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Train Caitlin</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1322,14 +1330,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1397,10 +1401,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1464,14 +1472,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1539,12 +1543,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1614,10 +1618,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1677,7 +1685,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1732,7 +1740,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1791,14 +1799,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1858,10 +1862,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1918,8 +1926,16 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2037,11 +2053,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2102,7 +2114,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2165,7 +2177,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2224,7 +2236,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>14555 W NATIONAL AVE  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2283,7 +2295,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
+          <t>14555 W NATIONAL AVE  SUITE 100</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2325,7 +2337,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2376,21 +2392,9 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2443,9 +2447,21 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2546,11 +2562,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>4:45  AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2612,7 +2624,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45  AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2671,7 +2683,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2718,7 +2730,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>PICK #130 +RX, SUN PRAIRIE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2761,7 +2773,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>640 EAST MAIN STREET</t>
+          <t>PICK #130 +RX, SUN PRAIRIE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2812,7 +2824,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LYrjmm9K9hC2</t>
+          <t>640 EAST MAIN STREET</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2857,7 +2869,11 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/LYrjmm9K9hC2</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2886,30 +2902,22 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2933,10 +2941,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Train Caitlin</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2944,18 +2956,17 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -2993,14 +3004,10 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3008,15 +3015,20 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3048,10 +3060,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3059,12 +3075,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3103,14 +3119,10 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3118,19 +3130,15 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3167,10 +3175,14 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3178,12 +3190,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3227,7 +3239,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3238,12 +3250,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3286,7 +3298,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3297,12 +3309,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3341,7 +3353,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3352,12 +3364,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3400,7 +3412,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3411,12 +3423,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3459,7 +3471,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3470,12 +3482,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3518,7 +3530,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3529,12 +3541,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3577,14 +3589,10 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3592,12 +3600,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3640,7 +3648,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3655,18 +3663,17 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3704,7 +3711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3719,17 +3726,18 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3760,9 +3768,21 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3770,22 +3790,61 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>16)</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>Sarah</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>@ Store,
 Supv Rx</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3731,13 +3731,12 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3795,12 +3794,13 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3834,17 +3834,56 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
           <t>Sarah</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>@ Store,
 Supv Rx</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Milwaukee Schedule.xlsx
@@ -1850,7 +1850,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATETOWN PLANK</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
